--- a/data/trans_camb/P20-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P20-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.108075552892212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9460696036547235</v>
+        <v>0.9460696036547228</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.736739070898292</v>
@@ -655,7 +655,7 @@
         <v>3.362558042230663</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.204369016410093</v>
+        <v>1.204369016410092</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.922979781095025</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.119095779458089</v>
+        <v>-3.146071976307551</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.123507561553156</v>
+        <v>-2.132806571255982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.8577185284142</v>
+        <v>-1.837902545690616</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4652454316273663</v>
+        <v>-0.3208405796125566</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4803561518510544</v>
+        <v>-0.9640196058225341</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.239677815103515</v>
+        <v>-2.359523669594981</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.3952097006857945</v>
+        <v>-0.5970632478355902</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.259796057279487</v>
+        <v>-0.1327327901015343</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.083093220953963</v>
+        <v>-0.9681465606933077</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.922326692399568</v>
+        <v>2.994007861748576</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.334368627034677</v>
+        <v>4.102269194575867</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.884519021818932</v>
+        <v>3.776944363599878</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.079127570492378</v>
+        <v>9.271325413481971</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.368100175872808</v>
+        <v>7.26782603551671</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.892486189251604</v>
+        <v>4.497157596969901</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.951029405535047</v>
+        <v>4.654828680189862</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.69117802859922</v>
+        <v>4.946349769816416</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.15707283232484</v>
+        <v>3.246741496842072</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2215847558128531</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1891880039773667</v>
+        <v>0.1891880039773666</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.7592482027663011</v>
@@ -760,7 +760,7 @@
         <v>0.538981799936225</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1930473681345019</v>
+        <v>0.1930473681345017</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.350450082111566</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5048955301153826</v>
+        <v>-0.4869301431666643</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3539969976196241</v>
+        <v>-0.3646432657896422</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2852865680320705</v>
+        <v>-0.2840151710616539</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.01088679802393562</v>
+        <v>-0.08408818229666151</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09078657946964191</v>
+        <v>-0.1288920223581077</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2653725149380956</v>
+        <v>-0.2931742443080634</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07462640394939971</v>
+        <v>-0.09909630180648073</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04524722387355896</v>
+        <v>-0.03304193281610671</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1719748961690109</v>
+        <v>-0.1535392292527955</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7989934195942869</v>
+        <v>0.7679254252459454</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.15822781153569</v>
+        <v>1.073427885794779</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.033548350883375</v>
+        <v>1.119775030520319</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.935317678386855</v>
+        <v>2.058917920165224</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.714305717240716</v>
+        <v>1.776026023827117</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.143943175298063</v>
+        <v>1.039198892025131</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.129536883579396</v>
+        <v>1.029093867400292</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.064599529089448</v>
+        <v>1.10263951707245</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.72842482417928</v>
+        <v>0.7560464477475919</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.182532041630953</v>
+        <v>-2.744276501888361</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.69982108349146</v>
+        <v>-1.929951654490788</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.361176938650679</v>
+        <v>-1.914213680689049</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.242113776983592</v>
+        <v>-2.730605189181381</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.962587235725776</v>
+        <v>-2.605598028761098</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.556305965031935</v>
+        <v>-3.833941022446462</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.9679681733885</v>
+        <v>-2.116776598811029</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.549994401292958</v>
+        <v>-1.364002685361982</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.184047624580483</v>
+        <v>-2.412959972918272</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.845718211058756</v>
+        <v>2.668339764150947</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.679569364427514</v>
+        <v>4.288899600571234</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.552146394326646</v>
+        <v>3.285420161753891</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.83800048202646</v>
+        <v>6.525256525606602</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.711144038893896</v>
+        <v>5.461811993446913</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.611368986711871</v>
+        <v>3.425581194012776</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.387485560450951</v>
+        <v>3.138101363039431</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.961832169653655</v>
+        <v>3.753529103881868</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.49038499756417</v>
+        <v>2.402584039719788</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5343261386151035</v>
+        <v>-0.5209540774311123</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3361535929029522</v>
+        <v>-0.3789096118852933</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3844816837421314</v>
+        <v>-0.3658692124133371</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2555479077870016</v>
+        <v>-0.2858114076487929</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2929043589625217</v>
+        <v>-0.279103687561375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3637424780003135</v>
+        <v>-0.3875826423500631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2705270524167402</v>
+        <v>-0.2912157633969407</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2191898446162207</v>
+        <v>-0.1879009549404327</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2856531389750192</v>
+        <v>-0.2942503377426226</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.117650626246723</v>
+        <v>1.064050579863667</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.798262159732134</v>
+        <v>1.434894544678632</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.56496336430794</v>
+        <v>1.244560836308098</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.132930599318461</v>
+        <v>1.101507992563318</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.025290989971116</v>
+        <v>0.9192270530665165</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6473549066173135</v>
+        <v>0.5946817701016195</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6786814878847093</v>
+        <v>0.669276235404801</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8147356811869724</v>
+        <v>0.8098524907162622</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5278708927737735</v>
+        <v>0.503261227149511</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.188570932798997</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.905548365332449</v>
+        <v>3.905548365332448</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.047067564232759</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.228576603834975</v>
+        <v>1.248405883141762</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2296153979283878</v>
+        <v>-0.3477559647189002</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.128040586028955</v>
+        <v>0.7163032244966685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.636999591989191</v>
+        <v>-7.206398105350985</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.037127050544781</v>
+        <v>-6.931550477778753</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.287207205548704</v>
+        <v>-6.392911062119561</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3725297163832021</v>
+        <v>0.1093412263434016</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.031849428431416</v>
+        <v>-0.8400300575065512</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09952832329697284</v>
+        <v>0.2716000610653976</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.803202745942133</v>
+        <v>7.056293930291196</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.856369099551239</v>
+        <v>5.072310511128517</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.092575542601444</v>
+        <v>6.879874290572914</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.420139479153558</v>
+        <v>4.562233837154412</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.848697443504483</v>
+        <v>7.649672519405152</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.096918734990074</v>
+        <v>6.727864934385481</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.373374061229049</v>
+        <v>5.463988513801393</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.163587943064588</v>
+        <v>4.43865465293923</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.95295695020452</v>
+        <v>5.828649741991613</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5575201234913005</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.994905750738751</v>
+        <v>0.9949057507387505</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1061585405580515</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2057124618531028</v>
+        <v>0.1824522950711306</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0674280573030185</v>
+        <v>-0.1362743222042363</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.198223884588795</v>
+        <v>0.1434418778916018</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5225531731662455</v>
+        <v>-0.5434579977997354</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5226616065543982</v>
+        <v>-0.5413364095329642</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.524086879199326</v>
+        <v>-0.4882444758400761</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05403121001089711</v>
+        <v>-0.003694527341263466</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1560067028844486</v>
+        <v>-0.1349080027829438</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.0007717396834879843</v>
+        <v>0.00766813745679555</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.310224893157924</v>
+        <v>2.445508173879408</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.683810164383275</v>
+        <v>1.766142666525369</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.41830017405305</v>
+        <v>2.491799000441224</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6833373050383584</v>
+        <v>0.8379882157606523</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.03735800457518</v>
+        <v>1.115145124359112</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.897492257657394</v>
+        <v>1.118735868964911</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.307507548039686</v>
+        <v>1.309912159033902</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.090664432327253</v>
+        <v>1.032471181264493</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.372324522843757</v>
+        <v>1.358494126208689</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.139867588036334</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.012198899978826</v>
+        <v>1.012198899978825</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.780250612744008</v>
@@ -1306,7 +1306,7 @@
         <v>0.5024277120164511</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.04471331768816297</v>
+        <v>0.04471331768816436</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06638543040297142</v>
+        <v>0.0004942023601047824</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.583101465985058</v>
+        <v>-1.721706605021475</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7380503666760558</v>
+        <v>-0.7882175872965306</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.619707049187759</v>
+        <v>-1.259522575482146</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.460421753871952</v>
+        <v>-2.673550715889818</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.630434151365264</v>
+        <v>-4.537816345427851</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.192473843274238</v>
+        <v>0.1834478292886876</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.298881774809684</v>
+        <v>-0.9693553575333703</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.46840280906821</v>
+        <v>-1.4133075609409</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.615248205825971</v>
+        <v>3.696289141876713</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.789469507307583</v>
+        <v>1.897821611334781</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.920134497475013</v>
+        <v>2.86066216594838</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.638927455918301</v>
+        <v>5.00915875423614</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.273592330133412</v>
+        <v>3.231615925389845</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7437235569134709</v>
+        <v>0.5216862666634584</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.561922931506043</v>
+        <v>3.447857097903495</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.010517602510765</v>
+        <v>2.186813243265665</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.686003559617354</v>
+        <v>1.592337102733691</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.0307262133474969</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2223605896655045</v>
+        <v>0.2223605896655043</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2017340668004598</v>
@@ -1411,7 +1411,7 @@
         <v>0.08216256806289995</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.00731201906265765</v>
+        <v>0.007312019062657877</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01336394955747363</v>
+        <v>-0.005240794813942855</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3098918809895389</v>
+        <v>-0.3227733645745148</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1485606235328504</v>
+        <v>-0.160244405012041</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1573379229482362</v>
+        <v>-0.1230531359447206</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2415116006022339</v>
+        <v>-0.258793602544502</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.430570878622872</v>
+        <v>-0.4398232526867452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01870293510703729</v>
+        <v>0.02535361360291161</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1905714664486085</v>
+        <v>-0.1418096204482094</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2143208321337052</v>
+        <v>-0.2064568406272409</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9966158058590946</v>
+        <v>0.993196832432844</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4873704119282066</v>
+        <v>0.5170307618798723</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8023335837759134</v>
+        <v>0.7843613185084142</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6394004635800272</v>
+        <v>0.67194843425359</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.442692840015595</v>
+        <v>0.4549903097500556</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1086915830697826</v>
+        <v>0.07477503688393841</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.648005633308959</v>
+        <v>0.6343359872526084</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.368856630270841</v>
+        <v>0.404410857339669</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3160979431865916</v>
+        <v>0.3031956954951139</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.8017162704143439</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.441402106364277</v>
+        <v>3.441402106364275</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.178367249709088</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.008775537364893164</v>
+        <v>-0.02673997831634562</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.500730837495737</v>
+        <v>-3.567006897235698</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.40086227419388</v>
+        <v>0.4054408802772742</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.06491219407332806</v>
+        <v>0.07443005981296301</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.772072420980514</v>
+        <v>-3.719606191821794</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.421547005233341</v>
+        <v>-4.493702445798293</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8034468204114831</v>
+        <v>0.939436654058075</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.107576361144827</v>
+        <v>-3.147262216298985</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.682309534477559</v>
+        <v>-1.442635583215098</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.445640911254184</v>
+        <v>6.835979486347863</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.511439633166887</v>
+        <v>1.640358625652887</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.240791923800185</v>
+        <v>6.350021897223557</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.489853977324477</v>
+        <v>6.656274089612757</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.390290735438428</v>
+        <v>2.156047375014643</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.179380296270969</v>
+        <v>1.128326370163806</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.350032918513079</v>
+        <v>5.751195767022757</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.022996966286382</v>
+        <v>1.122900425841776</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.339696708196848</v>
+        <v>2.428590090996886</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.185446698659966</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7960380535334211</v>
+        <v>0.7960380535334207</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4413893239917377</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04061302864222308</v>
+        <v>-0.03039056958176741</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5837536802623076</v>
+        <v>-0.5701519982456265</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.03277943339151187</v>
+        <v>0.04036468778671146</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.00343111662749748</v>
+        <v>-0.01337421814365258</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4145478634104172</v>
+        <v>-0.4184696027080233</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4866575078358268</v>
+        <v>-0.4936327650896291</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.123034365590803</v>
+        <v>0.1254386578781461</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4240000846369225</v>
+        <v>-0.4277675420561694</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2270804485045349</v>
+        <v>-0.2048095353496126</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.234436134788843</v>
+        <v>2.331326916836266</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5930125512741907</v>
+        <v>0.6804636205106893</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.134626593908638</v>
+        <v>2.345231690556693</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.116788992317354</v>
+        <v>1.219845610476197</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4524417852147214</v>
+        <v>0.3935715201740927</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2445378726505477</v>
+        <v>0.2088419653550842</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.113958239238078</v>
+        <v>1.218831544604242</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2203158657234899</v>
+        <v>0.2382560229248183</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4799999835677056</v>
+        <v>0.4964390335964591</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.3129532441833879</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.236129767779543</v>
+        <v>-1.236129767779542</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.324979293119555</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.681674718335294</v>
+        <v>-0.5533710210940559</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.6797203800757378</v>
+        <v>-0.3730162588351955</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.553460999483808</v>
+        <v>-1.821050245719988</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.7950808163549369</v>
+        <v>-1.136439918823196</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.41018456720807</v>
+        <v>-2.214996230378508</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.037120125970897</v>
+        <v>-3.331586242881758</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.4113000006231294</v>
+        <v>-0.507261137153065</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.591498152329249</v>
+        <v>-1.50490567198636</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.604886773610999</v>
+        <v>-2.623400664722179</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.455580384997824</v>
+        <v>4.524875883057263</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.660731346826407</v>
+        <v>4.521754340780364</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.122711000984642</v>
+        <v>3.153994667749989</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.565735775391552</v>
+        <v>3.078099302168762</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.816702170889806</v>
+        <v>1.903156669556968</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.8968345975435766</v>
+        <v>0.6661640142274219</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.015241803276343</v>
+        <v>3.120961261983864</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.83950890575483</v>
+        <v>1.720151731923582</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.7950596888533769</v>
+        <v>0.7729923967407933</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.04863500415738128</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1921027422223861</v>
+        <v>-0.192102742222386</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2439402947491534</v>
@@ -1850,29 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6714483032989336</v>
+        <v>-0.5882456111014209</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6899132631939995</v>
-      </c>
-      <c r="E38" s="6" t="inlineStr"/>
+        <v>-0.5711068179894752</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1183345030978672</v>
+        <v>-0.1513032022935223</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3232520231137639</v>
+        <v>-0.2986477729269559</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4231309007077866</v>
+        <v>-0.4362690558106455</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.06781389409424748</v>
+        <v>-0.07961611560810916</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2644653198861583</v>
+        <v>-0.2535366144291551</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.420144860946</v>
+        <v>-0.4240689195297128</v>
       </c>
     </row>
     <row r="39">
@@ -1883,29 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>10.27936782159127</v>
+        <v>12.94448046532308</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>10.05196588776346</v>
-      </c>
-      <c r="E39" s="6" t="inlineStr"/>
+        <v>11.43679258426287</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>8.063395810489936</v>
+      </c>
       <c r="F39" s="6" t="n">
-        <v>0.6436578394354553</v>
+        <v>0.5424109081247837</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3447024459606797</v>
+        <v>0.3430360485836116</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1770301702065004</v>
+        <v>0.1301771960471282</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6587051507598151</v>
+        <v>0.6679839002811327</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4133701313975991</v>
+        <v>0.369476215884313</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1721407051362817</v>
+        <v>0.1665425854896725</v>
       </c>
     </row>
     <row r="40">
@@ -1955,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.8179152356139072</v>
+        <v>0.8232392668532256</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.3472667786650452</v>
+        <v>-0.3107058397526645</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.799982588628227</v>
+        <v>0.6475725495299673</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.7995622015837549</v>
+        <v>0.7789497717975739</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.9097400759299407</v>
+        <v>-0.9983509211999556</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.93550642066745</v>
+        <v>-2.01452882316576</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.088126996372478</v>
+        <v>1.126293605578187</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.3465240771793825</v>
+        <v>-0.2785208592265723</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.3742254008452846</v>
+        <v>-0.4479218396775909</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.988288018290588</v>
+        <v>3.072088969835707</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.815991847828736</v>
+        <v>1.692721851789226</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.003879420264658</v>
+        <v>2.864086950302636</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.509953433594287</v>
+        <v>3.519509388253802</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.760686078455609</v>
+        <v>1.537113478620809</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.4000119253644625</v>
+        <v>0.3956444338796374</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.820299067732891</v>
+        <v>2.881116886121564</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.370530766330774</v>
+        <v>1.4092272122057</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.273621141973466</v>
+        <v>1.262465791280075</v>
       </c>
     </row>
     <row r="43">
@@ -2060,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1833031797441562</v>
+        <v>0.1706301074926705</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07755022918644375</v>
+        <v>-0.0764246019246899</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1717060655727927</v>
+        <v>0.1409311287024611</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.09608197386961445</v>
+        <v>0.09559700294306135</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1147131296513552</v>
+        <v>-0.1250789326389421</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2386886656231661</v>
+        <v>-0.255857365471997</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1710718340115889</v>
+        <v>0.1814718155312551</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.05841470148649478</v>
+        <v>-0.04538206886138978</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.05948500854502337</v>
+        <v>-0.07139874683949128</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8478367803638471</v>
+        <v>0.8303227677133308</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.49960275645909</v>
+        <v>0.441911175664139</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8251049747852947</v>
+        <v>0.7795076824602998</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5165132240852012</v>
+        <v>0.5135483858428272</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2644619054654597</v>
+        <v>0.2260895188365758</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.06111239270845728</v>
+        <v>0.05947644239291841</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5310822745755001</v>
+        <v>0.5446989656505407</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2526599949832838</v>
+        <v>0.2628961216605446</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2411171316400402</v>
+        <v>0.2337917829259873</v>
       </c>
     </row>
     <row r="46">
